--- a/src/test/java/testCases/order/OrderTestData.xlsx
+++ b/src/test/java/testCases/order/OrderTestData.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/otp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CB71B-339A-0640-8948-D1CA482813D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4573FFC6-4B9E-F840-90BB-264B6AB9B478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Recent Phone Number" sheetId="2" r:id="rId1"/>
+    <sheet name="Catalog" sheetId="3" r:id="rId2"/>
+    <sheet name="Create Order" sheetId="4" r:id="rId3"/>
+    <sheet name="Cancel Order" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,27 +36,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+  <si>
+    <t>sessionId</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>eyJhbGciOiJIUzUxMiJ9.eyJzdWIiOiJkd2lnaHRAZHVuZGVybWlmZmxpbi5jbyIsImV4cCI6MTYyMDk4ODA0NiwiaWF0IjoxNTg5NDUyMDQ2fQ</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>081252930398</t>
+  </si>
+  <si>
+    <t>+6281252930398</t>
+  </si>
+  <si>
+    <t>0812</t>
+  </si>
+  <si>
+    <t>081252</t>
+  </si>
+  <si>
+    <t>021252930398</t>
+  </si>
+  <si>
+    <t>081252930ABC</t>
+  </si>
+  <si>
+    <t>081 252930398</t>
+  </si>
+  <si>
+    <t>catalogId</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>9999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,12 +100,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -98,29 +150,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC0CA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -429,64 +486,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5BD428-A42D-9849-A06E-9307B2B921C5}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0473D3-0997-FE4E-ADC8-4218DC8CB6C9}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABFCD1-161D-0348-8400-65ECCA6EDFC5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testCases/order/OrderTestData.xlsx
+++ b/src/test/java/testCases/order/OrderTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4573FFC6-4B9E-F840-90BB-264B6AB9B478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9EA6C5-67E5-4D4D-95AB-6EECC877DD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent Phone Number" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>sessionId</t>
   </si>
@@ -53,9 +53,6 @@
     <t>081252930398</t>
   </si>
   <si>
-    <t>+6281252930398</t>
-  </si>
-  <si>
     <t>0812</t>
   </si>
   <si>
@@ -78,13 +75,154 @@
   </si>
   <si>
     <t>9999</t>
+  </si>
+  <si>
+    <t>Start with +62</t>
+  </si>
+  <si>
+    <t>+6281</t>
+  </si>
+  <si>
+    <t>Start with 62</t>
+  </si>
+  <si>
+    <t>Below 5 characters</t>
+  </si>
+  <si>
+    <t>Exceed 5 characters</t>
+  </si>
+  <si>
+    <t>Undefined provider</t>
+  </si>
+  <si>
+    <t>02125</t>
+  </si>
+  <si>
+    <t>Not numerical only</t>
+  </si>
+  <si>
+    <t>08ABC</t>
+  </si>
+  <si>
+    <t>White space</t>
+  </si>
+  <si>
+    <t>081 2</t>
+  </si>
+  <si>
+    <t>Empty string</t>
+  </si>
+  <si>
+    <t>Valid parameters</t>
+  </si>
+  <si>
+    <t>testCase</t>
+  </si>
+  <si>
+    <t>phonePrefix</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Undefined session id</t>
+  </si>
+  <si>
+    <t>16E8134F893B0407FF9DBA58CB8EC832</t>
+  </si>
+  <si>
+    <t>"code":401,"message":"Unauthorized"</t>
+  </si>
+  <si>
+    <t>Empty string session id</t>
+  </si>
+  <si>
+    <t>08125</t>
+  </si>
+  <si>
+    <t>{"provider":{"id":2,"name":"Telkomsel","image":"https://res.cloudinary.com/alvark/image/upload/v1592209103/danapulsa/Telkomsel_Logo_eviigt_nbbrjv.png"},"catalog":[{"id":13,"value":15000,"price":15000},{"id":14,"value":20000,"price":20000},{"id":15,"value":25000,"price":25000},{"id":16,"value":30000,"price":30000},{"id":17,"value":40000,"price":40000},{"id":18,"value":50000,"price":50000},{"id":19,"value":75000,"price":75000},{"id":20,"value":100000,"price":100000},{"id":21,"value":150000,"price":150000},{"id":22,"value":200000,"price":200000},{"id":23,"value":300000,"price":300000},{"id":24,"value":500000,"price":500000},{"id":25,"value":1000000,"price":1000000}]}</t>
+  </si>
+  <si>
+    <t>"code":400,"message":"invalid phone number"</t>
+  </si>
+  <si>
+    <t>"code":404,"message":"unknown phone number"</t>
+  </si>
+  <si>
+    <t>"status":404,"error":"Not Found"</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>Valid ID (no transaction history)</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Valid ID (below 10 transaction history)</t>
+  </si>
+  <si>
+    <t>"number":"081252930398","provider":{"id":2,"name":"Telkomsel","image":"https://res.cloudinary.com/alvark/image/upload/v1592209103/danapulsa/Telkomsel_Logo_eviigt_nbbrjv.png"}</t>
+  </si>
+  <si>
+    <t>Valid ID (more than 10 transaction history)</t>
+  </si>
+  <si>
+    <t>"number":"081252161795","provider":{"id":2,"name":"Telkomsel","image":"https://res.cloudinary.com/alvark/image/upload/v1592209103/danapulsa/Telkomsel_Logo_eviigt_nbbrjv.png"}</t>
+  </si>
+  <si>
+    <t>+628125293039</t>
+  </si>
+  <si>
+    <t>6281252930398</t>
+  </si>
+  <si>
+    <t>Below 9 characters</t>
+  </si>
+  <si>
+    <t>08125293</t>
+  </si>
+  <si>
+    <t>Exceed 13 characters</t>
+  </si>
+  <si>
+    <t>08125293039812</t>
+  </si>
+  <si>
+    <t>Empty string phone number</t>
+  </si>
+  <si>
+    <t>Undefined catalog ID</t>
+  </si>
+  <si>
+    <t>Empty String catalog ID</t>
+  </si>
+  <si>
+    <t>Different provider</t>
+  </si>
+  <si>
+    <t>"phoneNumber":"081252930398","catalog":{"id":13,"provider":{"id":2,"name":"Telkomsel","image":"https://res.cloudinary.com/alvark/image/upload/v1592209103/danapulsa/Telkomsel_Logo_eviigt_nbbrjv.png"},"value":15000,"price":15000}</t>
+  </si>
+  <si>
+    <t>"code":400,"message":"selected catalog is not available for this phone’s provider"</t>
+  </si>
+  <si>
+    <t>"code":400,"message":["catalog ID must not be null"]</t>
+  </si>
+  <si>
+    <t>"code":400,"message":["phone number must not be null"]</t>
+  </si>
+  <si>
+    <t>"code":404,"message":"catalog not found"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,8 +237,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +268,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC0CA"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -163,10 +314,23 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,35 +650,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="107.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -523,101 +735,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5BD428-A42D-9849-A06E-9307B2B921C5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>62812</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,154 +920,269 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0473D3-0997-FE4E-ADC8-4218DC8CB6C9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="199" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="E2" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D9" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D10" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D11" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="E11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="E12" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="12">
+      <c r="D13" s="12">
         <v>9999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="E13" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -799,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/test/java/testCases/order/OrderTestData.xlsx
+++ b/src/test/java/testCases/order/OrderTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9EA6C5-67E5-4D4D-95AB-6EECC877DD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443C4CEE-0F77-AB48-A6B8-DCC11148F4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent Phone Number" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>sessionId</t>
   </si>
@@ -44,9 +44,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>eyJhbGciOiJIUzUxMiJ9.eyJzdWIiOiJkd2lnaHRAZHVuZGVybWlmZmxpbi5jbyIsImV4cCI6MTYyMDk4ODA0NiwiaWF0IjoxNTg5NDUyMDQ2fQ</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
@@ -216,6 +213,39 @@
   </si>
   <si>
     <t>"code":404,"message":"catalog not found"</t>
+  </si>
+  <si>
+    <t>Valid ID (no transaction)</t>
+  </si>
+  <si>
+    <t>unknown transaction</t>
+  </si>
+  <si>
+    <t>Valid ID (with transaction)</t>
+  </si>
+  <si>
+    <t>unknown user</t>
+  </si>
+  <si>
+    <t>invalid request format</t>
+  </si>
+  <si>
+    <t>Undefined transaction ID</t>
+  </si>
+  <si>
+    <t>Empty String transaction ID</t>
+  </si>
+  <si>
+    <t>Another user's transaction</t>
+  </si>
+  <si>
+    <t>Transaction already completed</t>
+  </si>
+  <si>
+    <t>Undefined session ID</t>
+  </si>
+  <si>
+    <t>Empty String session ID</t>
   </si>
 </sst>
 </file>
@@ -245,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,18 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC0CA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,14 +322,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -320,7 +335,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -665,67 +680,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
+      <c r="A1" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -744,173 +759,173 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>62812</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>62812</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -922,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0473D3-0997-FE4E-ADC8-4218DC8CB6C9}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,252 +951,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
+      <c r="A1" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D2" s="9">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="9">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9999</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12">
-        <v>13</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="12">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="12">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12">
-        <v>13</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="12">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="12">
-        <v>9999</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1191,67 +1206,134 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABFCD1-161D-0348-8400-65ECCA6EDFC5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testCases/order/OrderTestData.xlsx
+++ b/src/test/java/testCases/order/OrderTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443C4CEE-0F77-AB48-A6B8-DCC11148F4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F26FC-FB10-A844-93BE-79270C2B7864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent Phone Number" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>sessionId</t>
   </si>
@@ -218,16 +218,7 @@
     <t>Valid ID (no transaction)</t>
   </si>
   <si>
-    <t>unknown transaction</t>
-  </si>
-  <si>
     <t>Valid ID (with transaction)</t>
-  </si>
-  <si>
-    <t>unknown user</t>
-  </si>
-  <si>
-    <t>invalid request format</t>
   </si>
   <si>
     <t>Undefined transaction ID</t>
@@ -1209,14 +1200,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,13 +1234,11 @@
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -1261,7 +1250,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>29</v>
@@ -1270,24 +1259,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>1</v>
@@ -1295,37 +1284,33 @@
       <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>1</v>

--- a/src/test/java/testCases/order/OrderTestData.xlsx
+++ b/src/test/java/testCases/order/OrderTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F26FC-FB10-A844-93BE-79270C2B7864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9034AE-146E-1C4B-91C5-C2CC47736F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent Phone Number" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>sessionId</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Empty String session ID</t>
+  </si>
+  <si>
+    <t>"method":"WALLET","phoneNumber":"081252930398","catalog":{"id":13,"provider":{"id":2,"name":"Telkomsel","image":"https://res.cloudinary.com/alvark/image/upload/v1592209103/danapulsa/Telkomsel_Logo_eviigt_nbbrjv.png"},"value":15000,"price":15000},"status":"CANCELED"</t>
+  </si>
+  <si>
+    <t>"code":400,"message":"can't cancel completed transaction"</t>
+  </si>
+  <si>
+    <t>"code":404,"message":"unknown transaction"</t>
   </si>
 </sst>
 </file>
@@ -928,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0473D3-0997-FE4E-ADC8-4218DC8CB6C9}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,15 +1208,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABFCD1-161D-0348-8400-65ECCA6EDFC5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="242.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1234,7 +1243,9 @@
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1246,7 +1257,9 @@
       <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1284,7 +1297,9 @@
       <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -1306,7 +1321,9 @@
         <v>1</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1318,7 +1335,9 @@
       <c r="C9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testCases/order/OrderTestData.xlsx
+++ b/src/test/java/testCases/order/OrderTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9034AE-146E-1C4B-91C5-C2CC47736F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABE6464-0071-0442-B879-1865DBBC4F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent Phone Number" sheetId="2" r:id="rId1"/>
@@ -206,12 +206,6 @@
     <t>"code":400,"message":"selected catalog is not available for this phone’s provider"</t>
   </si>
   <si>
-    <t>"code":400,"message":["catalog ID must not be null"]</t>
-  </si>
-  <si>
-    <t>"code":400,"message":["phone number must not be null"]</t>
-  </si>
-  <si>
     <t>"code":404,"message":"catalog not found"</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>"code":404,"message":"unknown transaction"</t>
+  </si>
+  <si>
+    <t>"code":400,"message":"catalog ID must not be null"</t>
+  </si>
+  <si>
+    <t>"code":400,"message":"phone number must not be null"</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5BD428-A42D-9849-A06E-9307B2B921C5}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0473D3-0997-FE4E-ADC8-4218DC8CB6C9}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>9999</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>1</v>
@@ -1244,12 +1244,12 @@
         <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -1258,12 +1258,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>29</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="14" t="s">
@@ -1289,7 +1289,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>1</v>
@@ -1298,12 +1298,12 @@
         <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -1315,19 +1315,19 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
